--- a/Team-Data/2012-13/11-13-2012-13.xlsx
+++ b/Team-Data/2012-13/11-13-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>-1</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF2" t="n">
         <v>11</v>
@@ -765,37 +832,37 @@
         <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV2" t="n">
         <v>17</v>
@@ -807,13 +874,13 @@
         <v>24</v>
       </c>
       <c r="AY2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
         <v>9</v>
       </c>
       <c r="BA2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
         <v>22</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -926,10 +993,10 @@
         <v>-1.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF3" t="n">
         <v>11</v>
@@ -941,28 +1008,28 @@
         <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK3" t="n">
         <v>5</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM3" t="n">
         <v>28</v>
       </c>
       <c r="AN3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
       </c>
       <c r="AP3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ3" t="n">
         <v>4</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -986,7 +1053,7 @@
         <v>23</v>
       </c>
       <c r="AX3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
         <v>5</v>
@@ -995,10 +1062,10 @@
         <v>12</v>
       </c>
       <c r="BA3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -1030,160 +1097,160 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>0.667</v>
+        <v>0.6</v>
       </c>
       <c r="H4" t="n">
         <v>48</v>
       </c>
       <c r="I4" t="n">
-        <v>35.7</v>
+        <v>34.4</v>
       </c>
       <c r="J4" t="n">
-        <v>78.5</v>
+        <v>78.8</v>
       </c>
       <c r="K4" t="n">
-        <v>0.454</v>
+        <v>0.437</v>
       </c>
       <c r="L4" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="M4" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.336</v>
+        <v>0.358</v>
       </c>
       <c r="O4" t="n">
-        <v>18</v>
+        <v>16.6</v>
       </c>
       <c r="P4" t="n">
-        <v>25.5</v>
+        <v>24.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.706</v>
+        <v>0.68</v>
       </c>
       <c r="R4" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S4" t="n">
-        <v>30.5</v>
+        <v>31.2</v>
       </c>
       <c r="T4" t="n">
-        <v>42</v>
+        <v>42.6</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>19.4</v>
       </c>
       <c r="V4" t="n">
-        <v>15</v>
+        <v>15.4</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="X4" t="n">
-        <v>5.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>17.3</v>
+        <v>16.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>22.8</v>
+        <v>22.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.5</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AF4" t="n">
         <v>4</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
         <v>13</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>9</v>
       </c>
       <c r="AM4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AR4" t="n">
         <v>14</v>
       </c>
       <c r="AS4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX4" t="n">
         <v>22</v>
       </c>
-      <c r="AT4" t="n">
-        <v>18</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>20</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>16</v>
-      </c>
       <c r="AY4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AZ4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BA4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB4" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BC4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -1212,133 +1279,133 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="I5" t="n">
-        <v>36.5</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>86.5</v>
+        <v>88.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.422</v>
+        <v>0.426</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>18.7</v>
+        <v>19.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.295</v>
+        <v>0.303</v>
       </c>
       <c r="O5" t="n">
-        <v>20</v>
+        <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>25.5</v>
+        <v>24.2</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.784</v>
+        <v>0.769</v>
       </c>
       <c r="R5" t="n">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="S5" t="n">
-        <v>28.8</v>
+        <v>27.2</v>
       </c>
       <c r="T5" t="n">
-        <v>43.7</v>
+        <v>42.4</v>
       </c>
       <c r="U5" t="n">
-        <v>18.7</v>
+        <v>19</v>
       </c>
       <c r="V5" t="n">
         <v>13.2</v>
       </c>
       <c r="W5" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.5</v>
+        <v>99.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.5</v>
+        <v>-7.4</v>
       </c>
       <c r="AD5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE5" t="n">
         <v>23</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
         <v>7</v>
       </c>
       <c r="AI5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
         <v>4</v>
       </c>
       <c r="AK5" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN5" t="n">
         <v>24</v>
       </c>
-      <c r="AM5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>26</v>
-      </c>
       <c r="AO5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AP5" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
       </c>
       <c r="AS5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AT5" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AU5" t="n">
         <v>28</v>
@@ -1347,25 +1414,25 @@
         <v>4</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
         <v>3</v>
       </c>
       <c r="AY5" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
         <v>13</v>
       </c>
       <c r="BA5" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB5" t="n">
         <v>8</v>
       </c>
-      <c r="BB5" t="n">
-        <v>10</v>
-      </c>
       <c r="BC5" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>4.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
@@ -1493,7 +1560,7 @@
         <v>22</v>
       </c>
       <c r="AK6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1505,34 +1572,34 @@
         <v>22</v>
       </c>
       <c r="AO6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ6" t="n">
         <v>7</v>
       </c>
       <c r="AR6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS6" t="n">
         <v>13</v>
       </c>
       <c r="AT6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU6" t="n">
         <v>5</v>
       </c>
       <c r="AV6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>22</v>
       </c>
       <c r="AX6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY6" t="n">
         <v>12</v>
@@ -1544,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="BB6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -1576,118 +1643,118 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="n">
-        <v>0.25</v>
+        <v>0.286</v>
       </c>
       <c r="H7" t="n">
         <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J7" t="n">
-        <v>83.3</v>
+        <v>82.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L7" t="n">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="M7" t="n">
-        <v>21.9</v>
+        <v>23</v>
       </c>
       <c r="N7" t="n">
-        <v>0.371</v>
+        <v>0.385</v>
       </c>
       <c r="O7" t="n">
-        <v>16.8</v>
+        <v>16</v>
       </c>
       <c r="P7" t="n">
-        <v>24.6</v>
+        <v>24.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.68</v>
+        <v>0.655</v>
       </c>
       <c r="R7" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="S7" t="n">
-        <v>27.4</v>
+        <v>28.6</v>
       </c>
       <c r="T7" t="n">
-        <v>40.1</v>
+        <v>40.9</v>
       </c>
       <c r="U7" t="n">
-        <v>20.3</v>
+        <v>20.9</v>
       </c>
       <c r="V7" t="n">
-        <v>17.1</v>
+        <v>17.9</v>
       </c>
       <c r="W7" t="n">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="X7" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.6</v>
+        <v>22.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>97.90000000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>-6.9</v>
+        <v>-6</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF7" t="n">
         <v>25</v>
       </c>
-      <c r="AF7" t="n">
-        <v>26</v>
-      </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH7" t="n">
         <v>13</v>
       </c>
       <c r="AI7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN7" t="n">
         <v>6</v>
       </c>
-      <c r="AM7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>7</v>
-      </c>
       <c r="AO7" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
         <v>9</v>
@@ -1696,40 +1763,40 @@
         <v>29</v>
       </c>
       <c r="AR7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AT7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV7" t="n">
         <v>27</v>
       </c>
       <c r="AW7" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX7" t="n">
         <v>30</v>
       </c>
       <c r="AY7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
         <v>24</v>
       </c>
       <c r="BA7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BC7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1906,7 @@
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF8" t="n">
         <v>16</v>
@@ -1848,10 +1915,10 @@
         <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ8" t="n">
         <v>18</v>
@@ -1866,16 +1933,16 @@
         <v>11</v>
       </c>
       <c r="AN8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
@@ -1887,16 +1954,16 @@
         <v>19</v>
       </c>
       <c r="AU8" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV8" t="n">
         <v>11</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>10</v>
       </c>
       <c r="AW8" t="n">
         <v>20</v>
       </c>
       <c r="AX8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>6</v>
@@ -1911,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="BC8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2088,7 @@
         <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF9" t="n">
         <v>16</v>
@@ -2030,7 +2097,7 @@
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2039,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="AK9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2048,13 +2115,13 @@
         <v>8</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
         <v>27</v>
       </c>
       <c r="AP9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
@@ -2069,28 +2136,28 @@
         <v>1</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA9" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BB9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC9" t="n">
         <v>13</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -2215,31 +2282,31 @@
         <v>13</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ10" t="n">
         <v>20</v>
       </c>
       <c r="AK10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
         <v>25</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
       </c>
       <c r="AQ10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR10" t="n">
         <v>15</v>
@@ -2254,25 +2321,25 @@
         <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AX10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
         <v>20</v>
       </c>
       <c r="AZ10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
         <v>8</v>
       </c>
       <c r="BB10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC10" t="n">
         <v>30</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -2382,31 +2449,31 @@
         <v>-3.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF11" t="n">
         <v>16</v>
       </c>
       <c r="AG11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH11" t="n">
         <v>3</v>
       </c>
       <c r="AI11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
         <v>22</v>
       </c>
       <c r="AL11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM11" t="n">
         <v>13</v>
@@ -2415,10 +2482,10 @@
         <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ11" t="n">
         <v>25</v>
@@ -2433,16 +2500,16 @@
         <v>5</v>
       </c>
       <c r="AU11" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
         <v>18</v>
@@ -2454,10 +2521,10 @@
         <v>2</v>
       </c>
       <c r="BB11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -2564,40 +2631,40 @@
         <v>0.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF12" t="n">
         <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
         <v>9</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
       </c>
       <c r="AM12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP12" t="n">
         <v>12</v>
@@ -2618,25 +2685,25 @@
         <v>14</v>
       </c>
       <c r="AV12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY12" t="n">
         <v>18</v>
       </c>
       <c r="AZ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BC12" t="n">
         <v>15</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -2668,43 +2735,43 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
       </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13" t="n">
-        <v>0.375</v>
+        <v>0.429</v>
       </c>
       <c r="H13" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="I13" t="n">
-        <v>33.3</v>
+        <v>34.6</v>
       </c>
       <c r="J13" t="n">
-        <v>82.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K13" t="n">
-        <v>0.401</v>
+        <v>0.412</v>
       </c>
       <c r="L13" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>19.3</v>
+        <v>19.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.305</v>
+        <v>0.302</v>
       </c>
       <c r="O13" t="n">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="P13" t="n">
-        <v>20.9</v>
+        <v>20.3</v>
       </c>
       <c r="Q13" t="n">
         <v>0.754</v>
@@ -2716,55 +2783,55 @@
         <v>34.6</v>
       </c>
       <c r="T13" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="U13" t="n">
-        <v>16.8</v>
+        <v>17.1</v>
       </c>
       <c r="V13" t="n">
-        <v>16.8</v>
+        <v>17.4</v>
       </c>
       <c r="W13" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
         <v>7.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="Z13" t="n">
         <v>16.4</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.8</v>
+        <v>19.3</v>
       </c>
       <c r="AB13" t="n">
-        <v>88.09999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>-2</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF13" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AG13" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2773,34 +2840,34 @@
         <v>21</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP13" t="n">
         <v>23</v>
       </c>
-      <c r="AO13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>22</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR13" t="n">
         <v>5</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>2</v>
       </c>
       <c r="AU13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV13" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2809,16 +2876,16 @@
         <v>6</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA13" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
         <v>20</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>8</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2946,19 +3013,19 @@
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
         <v>2</v>
       </c>
       <c r="AL14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO14" t="n">
         <v>10</v>
@@ -2967,22 +3034,22 @@
         <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR14" t="n">
         <v>26</v>
       </c>
       <c r="AS14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT14" t="n">
         <v>27</v>
       </c>
       <c r="AU14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW14" t="n">
         <v>3</v>
@@ -2991,13 +3058,13 @@
         <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ14" t="n">
         <v>28</v>
       </c>
       <c r="BA14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -3032,106 +3099,106 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.375</v>
+        <v>0.429</v>
       </c>
       <c r="H15" t="n">
         <v>48</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5</v>
+        <v>35</v>
       </c>
       <c r="J15" t="n">
-        <v>76.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="K15" t="n">
-        <v>0.45</v>
+        <v>0.455</v>
       </c>
       <c r="L15" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M15" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N15" t="n">
-        <v>0.327</v>
+        <v>0.331</v>
       </c>
       <c r="O15" t="n">
-        <v>20.8</v>
+        <v>21.7</v>
       </c>
       <c r="P15" t="n">
-        <v>30.4</v>
+        <v>31.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="S15" t="n">
-        <v>33</v>
+        <v>32.7</v>
       </c>
       <c r="T15" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="U15" t="n">
-        <v>20.1</v>
+        <v>20.4</v>
       </c>
       <c r="V15" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="W15" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="X15" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="Y15" t="n">
         <v>4.9</v>
       </c>
       <c r="Z15" t="n">
-        <v>18.5</v>
+        <v>19.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.4</v>
+        <v>24.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>96.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF15" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AH15" t="n">
         <v>13</v>
       </c>
       <c r="AI15" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AJ15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL15" t="n">
         <v>12</v>
@@ -3149,13 +3216,13 @@
         <v>1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR15" t="n">
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT15" t="n">
         <v>3</v>
@@ -3164,28 +3231,28 @@
         <v>23</v>
       </c>
       <c r="AV15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
         <v>11</v>
       </c>
       <c r="AZ15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
       </c>
       <c r="BB15" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3307,13 +3374,13 @@
         <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>16</v>
@@ -3325,10 +3392,10 @@
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AQ16" t="n">
         <v>3</v>
@@ -3337,7 +3404,7 @@
         <v>7</v>
       </c>
       <c r="AS16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AT16" t="n">
         <v>7</v>
@@ -3352,13 +3419,13 @@
         <v>2</v>
       </c>
       <c r="AX16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3544,7 @@
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
@@ -3507,22 +3574,22 @@
         <v>3</v>
       </c>
       <c r="AO17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AQ17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR17" t="n">
         <v>25</v>
       </c>
       <c r="AS17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU17" t="n">
         <v>4</v>
@@ -3534,16 +3601,16 @@
         <v>24</v>
       </c>
       <c r="AX17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>4</v>
       </c>
       <c r="AZ17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BB17" t="n">
         <v>1</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -3656,10 +3723,10 @@
         <v>1.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AE18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF18" t="n">
         <v>4</v>
@@ -3674,7 +3741,7 @@
         <v>3</v>
       </c>
       <c r="AJ18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
         <v>7</v>
@@ -3683,7 +3750,7 @@
         <v>16</v>
       </c>
       <c r="AM18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN18" t="n">
         <v>14</v>
@@ -3695,40 +3762,40 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS18" t="n">
         <v>8</v>
       </c>
       <c r="AT18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU18" t="n">
         <v>3</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX18" t="n">
         <v>10</v>
       </c>
       <c r="AY18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ18" t="n">
         <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>3.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>4</v>
@@ -3853,13 +3920,13 @@
         <v>13</v>
       </c>
       <c r="AI19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>28</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>29</v>
-      </c>
       <c r="AK19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL19" t="n">
         <v>29</v>
@@ -3868,52 +3935,52 @@
         <v>27</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
         <v>3</v>
       </c>
       <c r="AQ19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS19" t="n">
         <v>12</v>
       </c>
       <c r="AT19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX19" t="n">
         <v>7</v>
       </c>
       <c r="AY19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ19" t="n">
         <v>8</v>
       </c>
       <c r="BA19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB19" t="n">
         <v>23</v>
       </c>
       <c r="BC19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -4020,46 +4087,46 @@
         <v>-0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF20" t="n">
         <v>4</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
         <v>13</v>
       </c>
       <c r="AI20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL20" t="n">
         <v>26</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>25</v>
-      </c>
       <c r="AM20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP20" t="n">
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR20" t="n">
         <v>19</v>
@@ -4068,13 +4135,13 @@
         <v>10</v>
       </c>
       <c r="AT20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
         <v>13</v>
       </c>
       <c r="AV20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW20" t="n">
         <v>25</v>
@@ -4083,16 +4150,16 @@
         <v>7</v>
       </c>
       <c r="AY20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -4124,10 +4191,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -4139,73 +4206,73 @@
         <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>38</v>
+        <v>37.3</v>
       </c>
       <c r="J21" t="n">
-        <v>82.59999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.46</v>
+        <v>0.453</v>
       </c>
       <c r="L21" t="n">
-        <v>12</v>
+        <v>12.8</v>
       </c>
       <c r="M21" t="n">
-        <v>28.2</v>
+        <v>29.3</v>
       </c>
       <c r="N21" t="n">
-        <v>0.426</v>
+        <v>0.436</v>
       </c>
       <c r="O21" t="n">
-        <v>15.4</v>
+        <v>17.3</v>
       </c>
       <c r="P21" t="n">
-        <v>20.2</v>
+        <v>22.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.762</v>
+        <v>0.767</v>
       </c>
       <c r="R21" t="n">
-        <v>9.4</v>
+        <v>10.3</v>
       </c>
       <c r="S21" t="n">
-        <v>30.2</v>
+        <v>31.5</v>
       </c>
       <c r="T21" t="n">
-        <v>39.6</v>
+        <v>41.8</v>
       </c>
       <c r="U21" t="n">
-        <v>20.2</v>
+        <v>21.5</v>
       </c>
       <c r="V21" t="n">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="W21" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="X21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y21" t="n">
         <v>3</v>
       </c>
-      <c r="Y21" t="n">
-        <v>3.4</v>
-      </c>
       <c r="Z21" t="n">
-        <v>16.8</v>
+        <v>17.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.4</v>
+        <v>20.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>103.4</v>
+        <v>104.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>15.6</v>
+        <v>17</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="n">
         <v>1</v>
@@ -4217,43 +4284,43 @@
         <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
       </c>
       <c r="AM21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AS21" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AT21" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AU21" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4262,16 +4329,16 @@
         <v>1</v>
       </c>
       <c r="AX21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA21" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="BB21" t="n">
         <v>2</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -4387,7 +4454,7 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF22" t="n">
         <v>4</v>
@@ -4399,7 +4466,7 @@
         <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
         <v>30</v>
@@ -4426,22 +4493,22 @@
         <v>1</v>
       </c>
       <c r="AR22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
       </c>
       <c r="AT22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU22" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4456,7 +4523,7 @@
         <v>6</v>
       </c>
       <c r="BB22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC22" t="n">
         <v>4</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -4488,94 +4555,94 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>0.286</v>
+        <v>0.333</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="J23" t="n">
-        <v>81.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K23" t="n">
-        <v>0.433</v>
+        <v>0.424</v>
       </c>
       <c r="L23" t="n">
         <v>5</v>
       </c>
       <c r="M23" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="N23" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O23" t="n">
-        <v>12.1</v>
+        <v>12.5</v>
       </c>
       <c r="P23" t="n">
         <v>16.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.726</v>
+        <v>0.75</v>
       </c>
       <c r="R23" t="n">
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.3</v>
       </c>
       <c r="T23" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U23" t="n">
-        <v>22.7</v>
+        <v>21.8</v>
       </c>
       <c r="V23" t="n">
-        <v>15.1</v>
+        <v>14.3</v>
       </c>
       <c r="W23" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="X23" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.7</v>
+        <v>21.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>88</v>
+        <v>87.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.3</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AE23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH23" t="n">
         <v>13</v>
@@ -4584,64 +4651,64 @@
         <v>20</v>
       </c>
       <c r="AJ23" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AK23" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM23" t="n">
         <v>29</v>
       </c>
       <c r="AN23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AV23" t="n">
         <v>8</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>14</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>14</v>
       </c>
       <c r="AW23" t="n">
         <v>30</v>
       </c>
       <c r="AX23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>23</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>18</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -4748,10 +4815,10 @@
         <v>-1</v>
       </c>
       <c r="AD24" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF24" t="n">
         <v>11</v>
@@ -4763,22 +4830,22 @@
         <v>13</v>
       </c>
       <c r="AI24" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AJ24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK24" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
         <v>11</v>
       </c>
       <c r="AM24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AN24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO24" t="n">
         <v>26</v>
@@ -4790,13 +4857,13 @@
         <v>5</v>
       </c>
       <c r="AR24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS24" t="n">
         <v>9</v>
       </c>
       <c r="AT24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU24" t="n">
         <v>25</v>
@@ -4808,19 +4875,19 @@
         <v>11</v>
       </c>
       <c r="AX24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY24" t="n">
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BC24" t="n">
         <v>17</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -4933,7 +5000,7 @@
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
@@ -4945,31 +5012,31 @@
         <v>13</v>
       </c>
       <c r="AI25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN25" t="n">
         <v>20</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR25" t="n">
         <v>4</v>
@@ -4978,16 +5045,16 @@
         <v>24</v>
       </c>
       <c r="AT25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU25" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AV25" t="n">
         <v>3</v>
       </c>
       <c r="AW25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX25" t="n">
         <v>5</v>
@@ -4996,16 +5063,16 @@
         <v>16</v>
       </c>
       <c r="AZ25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BB25" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BC25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -5034,133 +5101,133 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="n">
         <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>0.375</v>
+        <v>0.286</v>
       </c>
       <c r="H26" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>84.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.425</v>
+        <v>0.418</v>
       </c>
       <c r="L26" t="n">
-        <v>8.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
-        <v>23</v>
+        <v>22.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.357</v>
       </c>
       <c r="O26" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="P26" t="n">
         <v>22.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.765</v>
+        <v>0.752</v>
       </c>
       <c r="R26" t="n">
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>29</v>
+        <v>28.4</v>
       </c>
       <c r="T26" t="n">
-        <v>41.8</v>
+        <v>41.4</v>
       </c>
       <c r="U26" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="V26" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="W26" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="X26" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC26" t="n">
-        <v>-3</v>
+        <v>-5.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AG26" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AH26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN26" t="n">
         <v>11</v>
       </c>
-      <c r="AI26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>6</v>
-      </c>
       <c r="AO26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>8</v>
       </c>
       <c r="AS26" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AT26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU26" t="n">
         <v>27</v>
@@ -5175,19 +5242,19 @@
         <v>23</v>
       </c>
       <c r="AY26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB26" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BC26" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -5216,148 +5283,148 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
       </c>
       <c r="F27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" t="n">
-        <v>0.25</v>
+        <v>0.286</v>
       </c>
       <c r="H27" t="n">
-        <v>49.3</v>
+        <v>49.4</v>
       </c>
       <c r="I27" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J27" t="n">
-        <v>87</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.408</v>
+        <v>0.401</v>
       </c>
       <c r="L27" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="M27" t="n">
-        <v>17.5</v>
+        <v>18.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.279</v>
+        <v>0.295</v>
       </c>
       <c r="O27" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="P27" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.753</v>
+        <v>0.763</v>
       </c>
       <c r="R27" t="n">
-        <v>12.6</v>
+        <v>13</v>
       </c>
       <c r="S27" t="n">
-        <v>28.6</v>
+        <v>29.4</v>
       </c>
       <c r="T27" t="n">
-        <v>41.3</v>
+        <v>42.4</v>
       </c>
       <c r="U27" t="n">
-        <v>16.9</v>
+        <v>16.6</v>
       </c>
       <c r="V27" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="W27" t="n">
-        <v>9.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X27" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y27" t="n">
-        <v>7.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>24.6</v>
+        <v>25.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="AB27" t="n">
-        <v>90.8</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AC27" t="n">
-        <v>-7.9</v>
+        <v>-6.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF27" t="n">
         <v>25</v>
       </c>
-      <c r="AF27" t="n">
-        <v>26</v>
-      </c>
       <c r="AG27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI27" t="n">
         <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN27" t="n">
         <v>28</v>
       </c>
-      <c r="AL27" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM27" t="n">
+      <c r="AO27" t="n">
         <v>23</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>24</v>
       </c>
       <c r="AP27" t="n">
         <v>24</v>
       </c>
       <c r="AQ27" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AV27" t="n">
         <v>10</v>
       </c>
-      <c r="AS27" t="n">
-        <v>28</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>8</v>
-      </c>
       <c r="AW27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ27" t="n">
         <v>29</v>
@@ -5366,10 +5433,10 @@
         <v>27</v>
       </c>
       <c r="BB27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -5398,85 +5465,85 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.875</v>
+        <v>0.857</v>
       </c>
       <c r="H28" t="n">
         <v>48</v>
       </c>
       <c r="I28" t="n">
-        <v>37</v>
+        <v>37.3</v>
       </c>
       <c r="J28" t="n">
-        <v>78.09999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.474</v>
+        <v>0.488</v>
       </c>
       <c r="L28" t="n">
         <v>6.6</v>
       </c>
       <c r="M28" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O28" t="n">
-        <v>16</v>
+        <v>17.3</v>
       </c>
       <c r="P28" t="n">
-        <v>21.3</v>
+        <v>22.7</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.753</v>
+        <v>0.761</v>
       </c>
       <c r="R28" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="S28" t="n">
-        <v>30.9</v>
+        <v>31.4</v>
       </c>
       <c r="T28" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="U28" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="V28" t="n">
-        <v>15.5</v>
+        <v>16.6</v>
       </c>
       <c r="W28" t="n">
-        <v>9.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X28" t="n">
         <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="Z28" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.1</v>
+        <v>19.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5491,10 +5558,10 @@
         <v>13</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AK28" t="n">
         <v>3</v>
@@ -5503,55 +5570,55 @@
         <v>13</v>
       </c>
       <c r="AM28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP28" t="n">
         <v>18</v>
       </c>
-      <c r="AN28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ28" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AR28" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AT28" t="n">
         <v>28</v>
       </c>
       <c r="AU28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY28" t="n">
         <v>17</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>22</v>
       </c>
       <c r="AZ28" t="n">
         <v>7</v>
       </c>
       <c r="BA28" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -5580,160 +5647,160 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>6</v>
       </c>
       <c r="G29" t="n">
-        <v>0.25</v>
+        <v>0.143</v>
       </c>
       <c r="H29" t="n">
-        <v>49.9</v>
+        <v>50.1</v>
       </c>
       <c r="I29" t="n">
-        <v>35.4</v>
+        <v>36.7</v>
       </c>
       <c r="J29" t="n">
-        <v>85.90000000000001</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.412</v>
+        <v>0.418</v>
       </c>
       <c r="L29" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="M29" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.348</v>
+      </c>
+      <c r="O29" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="P29" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="R29" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="T29" t="n">
+        <v>40</v>
+      </c>
+      <c r="U29" t="n">
+        <v>21</v>
+      </c>
+      <c r="V29" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="W29" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="X29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y29" t="n">
         <v>7.6</v>
       </c>
-      <c r="M29" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0.359</v>
-      </c>
-      <c r="O29" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="P29" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0.8129999999999999</v>
-      </c>
-      <c r="R29" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="S29" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="T29" t="n">
-        <v>40.6</v>
-      </c>
-      <c r="U29" t="n">
-        <v>20</v>
-      </c>
-      <c r="V29" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="W29" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="X29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>7.5</v>
-      </c>
       <c r="Z29" t="n">
-        <v>25</v>
+        <v>25.3</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.8</v>
+        <v>20.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.90000000000001</v>
+        <v>100.1</v>
       </c>
       <c r="AC29" t="n">
-        <v>-3.8</v>
+        <v>-4.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH29" t="n">
         <v>1</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AJ29" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM29" t="n">
         <v>6</v>
       </c>
-      <c r="AK29" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>8</v>
-      </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT29" t="n">
         <v>26</v>
       </c>
-      <c r="AT29" t="n">
-        <v>22</v>
-      </c>
       <c r="AU29" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AV29" t="n">
         <v>5</v>
       </c>
       <c r="AW29" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AX29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AY29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA29" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BB29" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BC29" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -5843,7 +5910,7 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
         <v>16</v>
@@ -5852,37 +5919,37 @@
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI30" t="n">
         <v>5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL30" t="n">
         <v>18</v>
       </c>
       <c r="AM30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO30" t="n">
         <v>11</v>
       </c>
       <c r="AP30" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AQ30" t="n">
         <v>20</v>
       </c>
       <c r="AR30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>11</v>
@@ -5894,10 +5961,10 @@
         <v>15</v>
       </c>
       <c r="AV30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
@@ -5944,91 +6011,91 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>48.8</v>
+        <v>49</v>
       </c>
       <c r="I31" t="n">
-        <v>33.2</v>
+        <v>34.8</v>
       </c>
       <c r="J31" t="n">
         <v>84</v>
       </c>
       <c r="K31" t="n">
-        <v>0.395</v>
+        <v>0.414</v>
       </c>
       <c r="L31" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="M31" t="n">
-        <v>25.7</v>
+        <v>24.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.279</v>
+        <v>0.309</v>
       </c>
       <c r="O31" t="n">
-        <v>12.5</v>
+        <v>10.8</v>
       </c>
       <c r="P31" t="n">
-        <v>17.5</v>
+        <v>14.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.714</v>
+        <v>0.74</v>
       </c>
       <c r="R31" t="n">
-        <v>11.3</v>
+        <v>10</v>
       </c>
       <c r="S31" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="T31" t="n">
-        <v>42.5</v>
+        <v>41</v>
       </c>
       <c r="U31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="V31" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="W31" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X31" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="AA31" t="n">
-        <v>17.2</v>
+        <v>16.6</v>
       </c>
       <c r="AB31" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AC31" t="n">
-        <v>-8.199999999999999</v>
+        <v>-6.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6037,13 +6104,13 @@
         <v>7</v>
       </c>
       <c r="AI31" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL31" t="n">
         <v>9</v>
@@ -6052,52 +6119,52 @@
         <v>3</v>
       </c>
       <c r="AN31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA31" t="n">
         <v>29</v>
       </c>
-      <c r="AO31" t="n">
+      <c r="BB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="BC31" t="n">
         <v>28</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>14</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>16</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>28</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>30</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>29</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-13-2012-13</t>
+          <t>2012-11-13</t>
         </is>
       </c>
     </row>
